--- a/Cap_Stone_1/data/Zillow_Sale_Prices_County_2008_2015_cleaned.xlsx
+++ b/Cap_Stone_1/data/Zillow_Sale_Prices_County_2008_2015_cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yulmee\Documents\Yul-Mee\Springboard\Capstone 1\dataset\cleaned\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB34455-0821-4078-B8F5-47EE31A75BFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B544135-A469-48AE-900E-A7210043F666}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2310" windowWidth="17715" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sale_Prices_County_2008_2015" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="189">
   <si>
     <t>RegionID</t>
   </si>
@@ -732,7 +732,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,6 +912,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1073,9 +1079,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1433,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EG52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="DI7" workbookViewId="0">
+      <selection activeCell="EE29" sqref="EE29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3925,416 +3933,416 @@
         <v>329800</v>
       </c>
     </row>
-    <row r="7" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>3136</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>667500</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>641000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
         <v>621900</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="3">
         <v>611000</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3">
         <v>603600</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="3">
         <v>590700</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="3">
         <v>566400</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>532600</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <v>494100</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="3">
         <v>471000</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="3">
         <v>458900</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="3">
         <v>448700</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="3">
         <v>424700</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="3">
         <v>406500</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="3">
         <v>400600</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="3">
         <v>415000</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="3">
         <v>442300</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="3">
         <v>467100</v>
       </c>
-      <c r="U7" s="1">
+      <c r="U7" s="3">
         <v>479400</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="3">
         <v>484300</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="3">
         <v>492600</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="3">
         <v>508300</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y7" s="3">
         <v>514400</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z7" s="3">
         <v>508500</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AA7" s="3">
         <v>504200</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AB7" s="3">
         <v>498700</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AC7" s="3">
         <v>505400</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AD7" s="3">
         <v>510200</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="3">
         <v>520700</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AF7" s="3">
         <v>526800</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AG7" s="3">
         <v>529300</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AH7" s="3">
         <v>528100</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AI7" s="3">
         <v>527400</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AJ7" s="3">
         <v>523800</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AK7" s="3">
         <v>516200</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AL7" s="3">
         <v>495200</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AM7" s="3">
         <v>483000</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AN7" s="3">
         <v>478100</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AO7" s="3">
         <v>488200</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AP7" s="3">
         <v>501500</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AQ7" s="3">
         <v>505500</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AR7" s="3">
         <v>515500</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AS7" s="3">
         <v>513100</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AT7" s="3">
         <v>506300</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AU7" s="3">
         <v>497400</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="AV7" s="3">
         <v>492500</v>
       </c>
-      <c r="AW7" s="1">
+      <c r="AW7" s="3">
         <v>494700</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="AX7" s="3">
         <v>484900</v>
       </c>
-      <c r="AY7" s="1">
+      <c r="AY7" s="3">
         <v>483700</v>
       </c>
-      <c r="AZ7" s="1">
+      <c r="AZ7" s="3">
         <v>493700</v>
       </c>
-      <c r="BA7" s="1">
+      <c r="BA7" s="3">
         <v>514900</v>
       </c>
-      <c r="BB7" s="1">
+      <c r="BB7" s="3">
         <v>538700</v>
       </c>
-      <c r="BC7" s="1">
+      <c r="BC7" s="3">
         <v>562200</v>
       </c>
-      <c r="BD7" s="1">
+      <c r="BD7" s="3">
         <v>586500</v>
       </c>
-      <c r="BE7" s="1">
+      <c r="BE7" s="3">
         <v>595800</v>
       </c>
-      <c r="BF7" s="1">
+      <c r="BF7" s="3">
         <v>602300</v>
       </c>
-      <c r="BG7" s="1">
+      <c r="BG7" s="3">
         <v>601700</v>
       </c>
-      <c r="BH7" s="1">
+      <c r="BH7" s="3">
         <v>610700</v>
       </c>
-      <c r="BI7" s="1">
+      <c r="BI7" s="3">
         <v>623100</v>
       </c>
-      <c r="BJ7" s="1">
+      <c r="BJ7" s="3">
         <v>627800</v>
       </c>
-      <c r="BK7" s="1">
+      <c r="BK7" s="3">
         <v>629900</v>
       </c>
-      <c r="BL7" s="1">
+      <c r="BL7" s="3">
         <v>633100</v>
       </c>
-      <c r="BM7" s="1">
+      <c r="BM7" s="3">
         <v>645400</v>
       </c>
-      <c r="BN7" s="1">
+      <c r="BN7" s="3">
         <v>654000</v>
       </c>
-      <c r="BO7" s="1">
+      <c r="BO7" s="3">
         <v>657900</v>
       </c>
-      <c r="BP7" s="1">
+      <c r="BP7" s="3">
         <v>661600</v>
       </c>
-      <c r="BQ7" s="1">
+      <c r="BQ7" s="3">
         <v>665700</v>
       </c>
-      <c r="BR7" s="1">
+      <c r="BR7" s="3">
         <v>666400</v>
       </c>
-      <c r="BS7" s="1">
+      <c r="BS7" s="3">
         <v>667600</v>
       </c>
-      <c r="BT7" s="1">
+      <c r="BT7" s="3">
         <v>671600</v>
       </c>
-      <c r="BU7" s="1">
+      <c r="BU7" s="3">
         <v>685300</v>
       </c>
-      <c r="BV7" s="1">
+      <c r="BV7" s="3">
         <v>693900</v>
       </c>
-      <c r="BW7" s="1">
+      <c r="BW7" s="3">
         <v>703500</v>
       </c>
-      <c r="BX7" s="1">
+      <c r="BX7" s="3">
         <v>708600</v>
       </c>
-      <c r="BY7" s="1">
+      <c r="BY7" s="3">
         <v>712100</v>
       </c>
-      <c r="BZ7" s="1">
+      <c r="BZ7" s="3">
         <v>715900</v>
       </c>
-      <c r="CA7" s="1">
+      <c r="CA7" s="3">
         <v>710600</v>
       </c>
-      <c r="CB7" s="1">
+      <c r="CB7" s="3">
         <v>721200</v>
       </c>
-      <c r="CC7" s="1">
+      <c r="CC7" s="3">
         <v>725700</v>
       </c>
-      <c r="CD7" s="1">
+      <c r="CD7" s="3">
         <v>736100</v>
       </c>
-      <c r="CE7" s="1">
+      <c r="CE7" s="3">
         <v>739600</v>
       </c>
-      <c r="CF7" s="1">
+      <c r="CF7" s="3">
         <v>748100</v>
       </c>
-      <c r="CG7" s="1">
+      <c r="CG7" s="3">
         <v>749800</v>
       </c>
-      <c r="CH7" s="1">
+      <c r="CH7" s="3">
         <v>756700</v>
       </c>
-      <c r="CI7" s="1">
+      <c r="CI7" s="3">
         <v>761300</v>
       </c>
-      <c r="CJ7" s="1">
+      <c r="CJ7" s="3">
         <v>770900</v>
       </c>
-      <c r="CK7" s="1">
+      <c r="CK7" s="3">
         <v>781500</v>
       </c>
-      <c r="CL7" s="1">
+      <c r="CL7" s="3">
         <v>793100</v>
       </c>
-      <c r="CM7" s="1">
+      <c r="CM7" s="3">
         <v>808000</v>
       </c>
-      <c r="CN7" s="1">
+      <c r="CN7" s="3">
         <v>825200</v>
       </c>
-      <c r="CO7" s="1">
+      <c r="CO7" s="3">
         <v>827900</v>
       </c>
-      <c r="CP7" s="1">
+      <c r="CP7" s="3">
         <v>828500</v>
       </c>
-      <c r="CQ7" s="1">
+      <c r="CQ7" s="3">
         <v>824300</v>
       </c>
-      <c r="CR7" s="1">
+      <c r="CR7" s="3">
         <v>837100</v>
       </c>
-      <c r="CS7" s="1">
+      <c r="CS7" s="3">
         <v>837400</v>
       </c>
-      <c r="CT7" s="1">
+      <c r="CT7" s="3">
         <v>840200</v>
       </c>
-      <c r="CU7" s="1">
+      <c r="CU7" s="3">
         <v>837800</v>
       </c>
-      <c r="CV7" s="1">
+      <c r="CV7" s="3">
         <v>848800</v>
       </c>
-      <c r="CW7" s="1">
+      <c r="CW7" s="3">
         <v>852400</v>
       </c>
-      <c r="CX7" s="1">
+      <c r="CX7" s="3">
         <v>853100</v>
       </c>
-      <c r="CY7" s="1">
+      <c r="CY7" s="3">
         <v>857400</v>
       </c>
-      <c r="CZ7" s="1">
+      <c r="CZ7" s="3">
         <v>856900</v>
       </c>
-      <c r="DA7" s="1">
+      <c r="DA7" s="3">
         <v>862700</v>
       </c>
-      <c r="DB7" s="1">
+      <c r="DB7" s="3">
         <v>867200</v>
       </c>
-      <c r="DC7" s="1">
+      <c r="DC7" s="3">
         <v>874500</v>
       </c>
-      <c r="DD7" s="1">
+      <c r="DD7" s="3">
         <v>873400</v>
       </c>
-      <c r="DE7" s="1">
+      <c r="DE7" s="3">
         <v>871500</v>
       </c>
-      <c r="DF7" s="1">
+      <c r="DF7" s="3">
         <v>878800</v>
       </c>
-      <c r="DG7" s="1">
+      <c r="DG7" s="3">
         <v>893000</v>
       </c>
-      <c r="DH7" s="1">
+      <c r="DH7" s="3">
         <v>900600</v>
       </c>
-      <c r="DI7" s="1">
+      <c r="DI7" s="3">
         <v>904800</v>
       </c>
-      <c r="DJ7" s="1">
+      <c r="DJ7" s="3">
         <v>914800</v>
       </c>
-      <c r="DK7" s="1">
+      <c r="DK7" s="3">
         <v>923800</v>
       </c>
-      <c r="DL7" s="1">
+      <c r="DL7" s="3">
         <v>938700</v>
       </c>
-      <c r="DM7" s="1">
+      <c r="DM7" s="3">
         <v>959700</v>
       </c>
-      <c r="DN7" s="1">
+      <c r="DN7" s="3">
         <v>992100</v>
       </c>
-      <c r="DO7" s="1">
+      <c r="DO7" s="3">
         <v>1015600</v>
       </c>
-      <c r="DP7" s="1">
+      <c r="DP7" s="3">
         <v>1065400</v>
       </c>
-      <c r="DQ7" s="1">
+      <c r="DQ7" s="3">
         <v>1100600</v>
       </c>
-      <c r="DR7" s="1">
+      <c r="DR7" s="3">
         <v>1144100</v>
       </c>
-      <c r="DS7" s="1">
+      <c r="DS7" s="3">
         <v>1170000</v>
       </c>
-      <c r="DT7" s="1">
+      <c r="DT7" s="3">
         <v>1176100</v>
       </c>
-      <c r="DU7" s="1">
+      <c r="DU7" s="3">
         <v>1178800</v>
       </c>
-      <c r="DV7" s="1">
+      <c r="DV7" s="3">
         <v>1148100</v>
       </c>
-      <c r="DW7" s="1">
+      <c r="DW7" s="3">
         <v>1137500</v>
       </c>
-      <c r="DX7" s="1">
+      <c r="DX7" s="3">
         <v>1136500</v>
       </c>
-      <c r="DY7" s="1">
+      <c r="DY7" s="3">
         <v>1123800</v>
       </c>
-      <c r="DZ7" s="1">
+      <c r="DZ7" s="3">
         <v>1142400</v>
       </c>
-      <c r="EA7" s="1">
+      <c r="EA7" s="3">
         <v>1113700</v>
       </c>
-      <c r="EB7" s="1">
+      <c r="EB7" s="3">
         <v>1101600</v>
       </c>
-      <c r="EC7" s="1">
+      <c r="EC7" s="3">
         <v>1072800</v>
       </c>
-      <c r="ED7" s="1">
+      <c r="ED7" s="3">
         <v>1066200</v>
       </c>
-      <c r="EE7" s="1">
+      <c r="EE7" s="3">
         <v>1075300</v>
       </c>
-      <c r="EF7" s="1">
+      <c r="EF7" s="3">
         <v>1072300</v>
       </c>
-      <c r="EG7" s="1">
+      <c r="EG7" s="3">
         <v>1074100</v>
       </c>
     </row>
@@ -5164,416 +5172,416 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>3159</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>452300</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>406500</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
         <v>374100</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>351700</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>340200</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <v>324900</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="3">
         <v>310300</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <v>293200</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
         <v>276400</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="3">
         <v>259500</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="3">
         <v>248400</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="3">
         <v>237400</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="3">
         <v>228100</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="3">
         <v>217800</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="3">
         <v>214400</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="3">
         <v>219800</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="3">
         <v>234300</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="3">
         <v>246500</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="3">
         <v>256400</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="3">
         <v>264900</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="3">
         <v>276800</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="3">
         <v>286600</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Y10" s="3">
         <v>284900</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="Z10" s="3">
         <v>279600</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AA10" s="3">
         <v>273000</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AB10" s="3">
         <v>267700</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AC10" s="3">
         <v>267700</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AD10" s="3">
         <v>268300</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AE10" s="3">
         <v>279300</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="AF10" s="3">
         <v>280800</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AG10" s="3">
         <v>285600</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AH10" s="3">
         <v>274400</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AI10" s="3">
         <v>269900</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AJ10" s="3">
         <v>264300</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AK10" s="3">
         <v>266100</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AL10" s="3">
         <v>263600</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AM10" s="3">
         <v>253900</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AN10" s="3">
         <v>245200</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="AO10" s="3">
         <v>238700</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AP10" s="3">
         <v>243700</v>
       </c>
-      <c r="AQ10" s="1">
+      <c r="AQ10" s="3">
         <v>242800</v>
       </c>
-      <c r="AR10" s="1">
+      <c r="AR10" s="3">
         <v>247300</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AS10" s="3">
         <v>246700</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AT10" s="3">
         <v>251000</v>
       </c>
-      <c r="AU10" s="1">
+      <c r="AU10" s="3">
         <v>255200</v>
       </c>
-      <c r="AV10" s="1">
+      <c r="AV10" s="3">
         <v>255700</v>
       </c>
-      <c r="AW10" s="1">
+      <c r="AW10" s="3">
         <v>257200</v>
       </c>
-      <c r="AX10" s="1">
+      <c r="AX10" s="3">
         <v>254300</v>
       </c>
-      <c r="AY10" s="1">
+      <c r="AY10" s="3">
         <v>256100</v>
       </c>
-      <c r="AZ10" s="1">
+      <c r="AZ10" s="3">
         <v>263500</v>
       </c>
-      <c r="BA10" s="1">
+      <c r="BA10" s="3">
         <v>279100</v>
       </c>
-      <c r="BB10" s="1">
+      <c r="BB10" s="3">
         <v>295100</v>
       </c>
-      <c r="BC10" s="1">
+      <c r="BC10" s="3">
         <v>302600</v>
       </c>
-      <c r="BD10" s="1">
+      <c r="BD10" s="3">
         <v>300500</v>
       </c>
-      <c r="BE10" s="1">
+      <c r="BE10" s="3">
         <v>305700</v>
       </c>
-      <c r="BF10" s="1">
+      <c r="BF10" s="3">
         <v>308500</v>
       </c>
-      <c r="BG10" s="1">
+      <c r="BG10" s="3">
         <v>317900</v>
       </c>
-      <c r="BH10" s="1">
+      <c r="BH10" s="3">
         <v>333900</v>
       </c>
-      <c r="BI10" s="1">
+      <c r="BI10" s="3">
         <v>342200</v>
       </c>
-      <c r="BJ10" s="1">
+      <c r="BJ10" s="3">
         <v>346800</v>
       </c>
-      <c r="BK10" s="1">
+      <c r="BK10" s="3">
         <v>339300</v>
       </c>
-      <c r="BL10" s="1">
+      <c r="BL10" s="3">
         <v>360100</v>
       </c>
-      <c r="BM10" s="1">
+      <c r="BM10" s="3">
         <v>382800</v>
       </c>
-      <c r="BN10" s="1">
+      <c r="BN10" s="3">
         <v>403500</v>
       </c>
-      <c r="BO10" s="1">
+      <c r="BO10" s="3">
         <v>414600</v>
       </c>
-      <c r="BP10" s="1">
+      <c r="BP10" s="3">
         <v>419300</v>
       </c>
-      <c r="BQ10" s="1">
+      <c r="BQ10" s="3">
         <v>423600</v>
       </c>
-      <c r="BR10" s="1">
+      <c r="BR10" s="3">
         <v>419400</v>
       </c>
-      <c r="BS10" s="1">
+      <c r="BS10" s="3">
         <v>422500</v>
       </c>
-      <c r="BT10" s="1">
+      <c r="BT10" s="3">
         <v>429000</v>
       </c>
-      <c r="BU10" s="1">
+      <c r="BU10" s="3">
         <v>438400</v>
       </c>
-      <c r="BV10" s="1">
+      <c r="BV10" s="3">
         <v>448800</v>
       </c>
-      <c r="BW10" s="1">
+      <c r="BW10" s="3">
         <v>442100</v>
       </c>
-      <c r="BX10" s="1">
+      <c r="BX10" s="3">
         <v>435100</v>
       </c>
-      <c r="BY10" s="1">
+      <c r="BY10" s="3">
         <v>426300</v>
       </c>
-      <c r="BZ10" s="1">
+      <c r="BZ10" s="3">
         <v>425300</v>
       </c>
-      <c r="CA10" s="1">
+      <c r="CA10" s="3">
         <v>430000</v>
       </c>
-      <c r="CB10" s="1">
+      <c r="CB10" s="3">
         <v>428700</v>
       </c>
-      <c r="CC10" s="1">
+      <c r="CC10" s="3">
         <v>436600</v>
       </c>
-      <c r="CD10" s="1">
+      <c r="CD10" s="3">
         <v>438200</v>
       </c>
-      <c r="CE10" s="1">
+      <c r="CE10" s="3">
         <v>434400</v>
       </c>
-      <c r="CF10" s="1">
+      <c r="CF10" s="3">
         <v>430800</v>
       </c>
-      <c r="CG10" s="1">
+      <c r="CG10" s="3">
         <v>427800</v>
       </c>
-      <c r="CH10" s="1">
+      <c r="CH10" s="3">
         <v>441600</v>
       </c>
-      <c r="CI10" s="1">
+      <c r="CI10" s="3">
         <v>447300</v>
       </c>
-      <c r="CJ10" s="1">
+      <c r="CJ10" s="3">
         <v>452100</v>
       </c>
-      <c r="CK10" s="1">
+      <c r="CK10" s="3">
         <v>448700</v>
       </c>
-      <c r="CL10" s="1">
+      <c r="CL10" s="3">
         <v>455700</v>
       </c>
-      <c r="CM10" s="1">
+      <c r="CM10" s="3">
         <v>457300</v>
       </c>
-      <c r="CN10" s="1">
+      <c r="CN10" s="3">
         <v>468300</v>
       </c>
-      <c r="CO10" s="1">
+      <c r="CO10" s="3">
         <v>466200</v>
       </c>
-      <c r="CP10" s="1">
+      <c r="CP10" s="3">
         <v>468800</v>
       </c>
-      <c r="CQ10" s="1">
+      <c r="CQ10" s="3">
         <v>466300</v>
       </c>
-      <c r="CR10" s="1">
+      <c r="CR10" s="3">
         <v>474500</v>
       </c>
-      <c r="CS10" s="1">
+      <c r="CS10" s="3">
         <v>480400</v>
       </c>
-      <c r="CT10" s="1">
+      <c r="CT10" s="3">
         <v>478900</v>
       </c>
-      <c r="CU10" s="1">
+      <c r="CU10" s="3">
         <v>479300</v>
       </c>
-      <c r="CV10" s="1">
+      <c r="CV10" s="3">
         <v>480500</v>
       </c>
-      <c r="CW10" s="1">
+      <c r="CW10" s="3">
         <v>491700</v>
       </c>
-      <c r="CX10" s="1">
+      <c r="CX10" s="3">
         <v>492900</v>
       </c>
-      <c r="CY10" s="1">
+      <c r="CY10" s="3">
         <v>497500</v>
       </c>
-      <c r="CZ10" s="1">
+      <c r="CZ10" s="3">
         <v>492000</v>
       </c>
-      <c r="DA10" s="1">
+      <c r="DA10" s="3">
         <v>491900</v>
       </c>
-      <c r="DB10" s="1">
+      <c r="DB10" s="3">
         <v>493000</v>
       </c>
-      <c r="DC10" s="1">
+      <c r="DC10" s="3">
         <v>502300</v>
       </c>
-      <c r="DD10" s="1">
+      <c r="DD10" s="3">
         <v>507600</v>
       </c>
-      <c r="DE10" s="1">
+      <c r="DE10" s="3">
         <v>517300</v>
       </c>
-      <c r="DF10" s="1">
+      <c r="DF10" s="3">
         <v>516700</v>
       </c>
-      <c r="DG10" s="1">
+      <c r="DG10" s="3">
         <v>522500</v>
       </c>
-      <c r="DH10" s="1">
+      <c r="DH10" s="3">
         <v>526300</v>
       </c>
-      <c r="DI10" s="1">
+      <c r="DI10" s="3">
         <v>531000</v>
       </c>
-      <c r="DJ10" s="1">
+      <c r="DJ10" s="3">
         <v>533600</v>
       </c>
-      <c r="DK10" s="1">
+      <c r="DK10" s="3">
         <v>528500</v>
       </c>
-      <c r="DL10" s="1">
+      <c r="DL10" s="3">
         <v>535200</v>
       </c>
-      <c r="DM10" s="1">
+      <c r="DM10" s="3">
         <v>540000</v>
       </c>
-      <c r="DN10" s="1">
+      <c r="DN10" s="3">
         <v>556500</v>
       </c>
-      <c r="DO10" s="1">
+      <c r="DO10" s="3">
         <v>564900</v>
       </c>
-      <c r="DP10" s="1">
+      <c r="DP10" s="3">
         <v>565500</v>
       </c>
-      <c r="DQ10" s="1">
+      <c r="DQ10" s="3">
         <v>562500</v>
       </c>
-      <c r="DR10" s="1">
+      <c r="DR10" s="3">
         <v>564000</v>
       </c>
-      <c r="DS10" s="1">
+      <c r="DS10" s="3">
         <v>574300</v>
       </c>
-      <c r="DT10" s="1">
+      <c r="DT10" s="3">
         <v>581900</v>
       </c>
-      <c r="DU10" s="1">
+      <c r="DU10" s="3">
         <v>584100</v>
       </c>
-      <c r="DV10" s="1">
+      <c r="DV10" s="3">
         <v>586300</v>
       </c>
-      <c r="DW10" s="1">
+      <c r="DW10" s="3">
         <v>584200</v>
       </c>
-      <c r="DX10" s="1">
+      <c r="DX10" s="3">
         <v>581100</v>
       </c>
-      <c r="DY10" s="1">
+      <c r="DY10" s="3">
         <v>579900</v>
       </c>
-      <c r="DZ10" s="1">
+      <c r="DZ10" s="3">
         <v>590200</v>
       </c>
-      <c r="EA10" s="1">
+      <c r="EA10" s="3">
         <v>605000</v>
       </c>
-      <c r="EB10" s="1">
+      <c r="EB10" s="3">
         <v>602000</v>
       </c>
-      <c r="EC10" s="1">
+      <c r="EC10" s="3">
         <v>598100</v>
       </c>
-      <c r="ED10" s="1">
+      <c r="ED10" s="3">
         <v>600400</v>
       </c>
-      <c r="EE10" s="1">
+      <c r="EE10" s="3">
         <v>602200</v>
       </c>
-      <c r="EF10" s="1">
+      <c r="EF10" s="3">
         <v>601200</v>
       </c>
-      <c r="EG10" s="1">
+      <c r="EG10" s="3">
         <v>596200</v>
       </c>
     </row>
@@ -6816,417 +6824,417 @@
         <v>596900</v>
       </c>
     </row>
-    <row r="14" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>2842</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>770600</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>725900</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>692400</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>690100</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <v>696500</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <v>685300</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>665600</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="3">
         <v>651300</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="3">
         <v>643400</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="3">
         <v>616900</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="3">
         <v>600100</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="3">
         <v>566500</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="3">
         <v>544800</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="3">
         <v>526700</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="3">
         <v>535600</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="3">
         <v>568400</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="3">
         <v>593600</v>
       </c>
-      <c r="T14" s="1">
+      <c r="T14" s="3">
         <v>600000</v>
       </c>
-      <c r="U14" s="1">
+      <c r="U14" s="3">
         <v>610000</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="3">
         <v>613300</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="3">
         <v>638500</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="3">
         <v>641600</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Y14" s="3">
         <v>665300</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="Z14" s="3">
         <v>641100</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AA14" s="3">
         <v>635000</v>
       </c>
-      <c r="AB14" s="1">
+      <c r="AB14" s="3">
         <v>600200</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14" s="3">
         <v>600000</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AD14" s="3">
         <v>607500</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AE14" s="3">
         <v>627800</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AF14" s="3">
         <v>658700</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AG14" s="3">
         <v>652400</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AH14" s="3">
         <v>638600</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AI14" s="3">
         <v>630500</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AJ14" s="3">
         <v>620900</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AK14" s="3">
         <v>621100</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AL14" s="3">
         <v>592600</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AM14" s="3">
         <v>588500</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AN14" s="3">
         <v>578400</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AO14" s="3">
         <v>597800</v>
       </c>
-      <c r="AP14" s="1">
+      <c r="AP14" s="3">
         <v>617900</v>
       </c>
-      <c r="AQ14" s="1">
+      <c r="AQ14" s="3">
         <v>632000</v>
       </c>
-      <c r="AR14" s="1">
+      <c r="AR14" s="3">
         <v>630800</v>
       </c>
-      <c r="AS14" s="1">
+      <c r="AS14" s="3">
         <v>619700</v>
       </c>
-      <c r="AT14" s="1">
+      <c r="AT14" s="3">
         <v>603700</v>
       </c>
-      <c r="AU14" s="1">
+      <c r="AU14" s="3">
         <v>594500</v>
       </c>
-      <c r="AV14" s="1">
+      <c r="AV14" s="3">
         <v>575100</v>
       </c>
-      <c r="AW14" s="1">
+      <c r="AW14" s="3">
         <v>582500</v>
       </c>
-      <c r="AX14" s="1">
+      <c r="AX14" s="3">
         <v>569900</v>
       </c>
-      <c r="AY14" s="1">
+      <c r="AY14" s="3">
         <v>582600</v>
       </c>
-      <c r="AZ14" s="1">
+      <c r="AZ14" s="3">
         <v>578800</v>
       </c>
-      <c r="BA14" s="1">
+      <c r="BA14" s="3">
         <v>581900</v>
       </c>
-      <c r="BB14" s="1">
+      <c r="BB14" s="3">
         <v>596500</v>
       </c>
-      <c r="BC14" s="1">
+      <c r="BC14" s="3">
         <v>623700</v>
       </c>
-      <c r="BD14" s="1">
+      <c r="BD14" s="3">
         <v>650700</v>
       </c>
-      <c r="BE14" s="1">
+      <c r="BE14" s="3">
         <v>658100</v>
       </c>
-      <c r="BF14" s="1">
+      <c r="BF14" s="3">
         <v>662200</v>
       </c>
-      <c r="BG14" s="1">
+      <c r="BG14" s="3">
         <v>674400</v>
       </c>
-      <c r="BH14" s="1">
+      <c r="BH14" s="3">
         <v>688800</v>
       </c>
-      <c r="BI14" s="1">
+      <c r="BI14" s="3">
         <v>700100</v>
       </c>
-      <c r="BJ14" s="1">
+      <c r="BJ14" s="3">
         <v>712900</v>
       </c>
-      <c r="BK14" s="1">
+      <c r="BK14" s="3">
         <v>732000</v>
       </c>
-      <c r="BL14" s="1">
+      <c r="BL14" s="3">
         <v>737900</v>
       </c>
-      <c r="BM14" s="1">
+      <c r="BM14" s="3">
         <v>740800</v>
       </c>
-      <c r="BN14" s="1">
+      <c r="BN14" s="3">
         <v>730500</v>
       </c>
-      <c r="BO14" s="1">
+      <c r="BO14" s="3">
         <v>734200</v>
       </c>
-      <c r="BP14" s="1">
+      <c r="BP14" s="3">
         <v>747800</v>
       </c>
-      <c r="BQ14" s="1">
+      <c r="BQ14" s="3">
         <v>750100</v>
       </c>
-      <c r="BR14" s="1">
+      <c r="BR14" s="3">
         <v>766900</v>
       </c>
-      <c r="BS14" s="1">
+      <c r="BS14" s="3">
         <v>758100</v>
       </c>
-      <c r="BT14" s="1">
+      <c r="BT14" s="3">
         <v>775000</v>
       </c>
-      <c r="BU14" s="1">
+      <c r="BU14" s="3">
         <v>806200</v>
       </c>
-      <c r="BV14" s="1">
+      <c r="BV14" s="3">
         <v>820400</v>
       </c>
-      <c r="BW14" s="1">
+      <c r="BW14" s="3">
         <v>826000</v>
       </c>
-      <c r="BX14" s="1">
+      <c r="BX14" s="3">
         <v>794000</v>
       </c>
-      <c r="BY14" s="1">
+      <c r="BY14" s="3">
         <v>798800</v>
       </c>
-      <c r="BZ14" s="1">
+      <c r="BZ14" s="3">
         <v>802700</v>
       </c>
-      <c r="CA14" s="1">
+      <c r="CA14" s="3">
         <v>812600</v>
       </c>
-      <c r="CB14" s="1">
+      <c r="CB14" s="3">
         <v>819100</v>
       </c>
-      <c r="CC14" s="1">
+      <c r="CC14" s="3">
         <v>834700</v>
       </c>
-      <c r="CD14" s="1">
+      <c r="CD14" s="3">
         <v>855900</v>
       </c>
-      <c r="CE14" s="1">
+      <c r="CE14" s="3">
         <v>884600</v>
       </c>
-      <c r="CF14" s="1">
+      <c r="CF14" s="3">
         <v>892000</v>
       </c>
-      <c r="CG14" s="1">
+      <c r="CG14" s="3">
         <v>895700</v>
       </c>
-      <c r="CH14" s="1">
+      <c r="CH14" s="3">
         <v>894100</v>
       </c>
-      <c r="CI14" s="1">
+      <c r="CI14" s="3">
         <v>916700</v>
       </c>
-      <c r="CJ14" s="1">
+      <c r="CJ14" s="3">
         <v>933800</v>
       </c>
-      <c r="CK14" s="1">
+      <c r="CK14" s="3">
         <v>952700</v>
       </c>
-      <c r="CL14" s="1">
+      <c r="CL14" s="3">
         <v>948700</v>
       </c>
-      <c r="CM14" s="1">
+      <c r="CM14" s="3">
         <v>954800</v>
       </c>
-      <c r="CN14" s="1">
+      <c r="CN14" s="3">
         <v>960300</v>
       </c>
-      <c r="CO14" s="1">
+      <c r="CO14" s="3">
         <v>972000</v>
       </c>
-      <c r="CP14" s="1">
+      <c r="CP14" s="3">
         <v>961800</v>
       </c>
-      <c r="CQ14" s="1">
+      <c r="CQ14" s="3">
         <v>963800</v>
       </c>
-      <c r="CR14" s="1">
+      <c r="CR14" s="3">
         <v>959400</v>
       </c>
-      <c r="CS14" s="1">
+      <c r="CS14" s="3">
         <v>990100</v>
       </c>
-      <c r="CT14" s="1">
+      <c r="CT14" s="3">
         <v>984500</v>
       </c>
-      <c r="CU14" s="1">
+      <c r="CU14" s="3">
         <v>973200</v>
       </c>
-      <c r="CV14" s="1">
+      <c r="CV14" s="3">
         <v>976700</v>
       </c>
-      <c r="CW14" s="1">
+      <c r="CW14" s="3">
         <v>986400</v>
       </c>
-      <c r="CX14" s="1">
+      <c r="CX14" s="3">
         <v>1043400</v>
       </c>
-      <c r="CY14" s="1">
+      <c r="CY14" s="3">
         <v>1051300</v>
       </c>
-      <c r="CZ14" s="1">
+      <c r="CZ14" s="3">
         <v>1058600</v>
       </c>
-      <c r="DA14" s="1">
+      <c r="DA14" s="3">
         <v>1040000</v>
       </c>
-      <c r="DB14" s="1">
+      <c r="DB14" s="3">
         <v>1020000</v>
       </c>
-      <c r="DC14" s="1">
+      <c r="DC14" s="3">
         <v>1020000</v>
       </c>
-      <c r="DD14" s="1">
+      <c r="DD14" s="3">
         <v>1002900</v>
       </c>
-      <c r="DE14" s="1">
+      <c r="DE14" s="3">
         <v>1002700</v>
       </c>
-      <c r="DF14" s="1">
+      <c r="DF14" s="3">
         <v>1013800</v>
       </c>
-      <c r="DG14" s="1">
+      <c r="DG14" s="3">
         <v>1013700</v>
       </c>
-      <c r="DH14" s="1">
+      <c r="DH14" s="3">
         <v>1039800</v>
       </c>
-      <c r="DI14" s="1">
+      <c r="DI14" s="3">
         <v>1058100</v>
       </c>
-      <c r="DJ14" s="1">
+      <c r="DJ14" s="3">
         <v>1098900</v>
       </c>
-      <c r="DK14" s="1">
+      <c r="DK14" s="3">
         <v>1100000</v>
       </c>
-      <c r="DL14" s="1">
+      <c r="DL14" s="3">
         <v>1103100</v>
       </c>
-      <c r="DM14" s="1">
+      <c r="DM14" s="3">
         <v>1107400</v>
       </c>
-      <c r="DN14" s="1">
+      <c r="DN14" s="3">
         <v>1127100</v>
       </c>
-      <c r="DO14" s="1">
+      <c r="DO14" s="3">
         <v>1200700</v>
       </c>
-      <c r="DP14" s="1">
+      <c r="DP14" s="3">
         <v>1243700</v>
       </c>
-      <c r="DQ14" s="1">
+      <c r="DQ14" s="3">
         <v>1291200</v>
       </c>
-      <c r="DR14" s="1">
+      <c r="DR14" s="3">
         <v>1280000</v>
       </c>
-      <c r="DS14" s="1">
+      <c r="DS14" s="3">
         <v>1275200</v>
       </c>
-      <c r="DT14" s="1">
+      <c r="DT14" s="3">
         <v>1252900</v>
       </c>
-      <c r="DU14" s="1">
+      <c r="DU14" s="3">
         <v>1237600</v>
       </c>
-      <c r="DV14" s="1">
+      <c r="DV14" s="3">
         <v>1250700</v>
       </c>
-      <c r="DW14" s="1">
+      <c r="DW14" s="3">
         <v>1253800</v>
       </c>
-      <c r="DX14" s="1">
+      <c r="DX14" s="3">
         <v>1267600</v>
       </c>
-      <c r="DY14" s="1">
+      <c r="DY14" s="3">
         <v>1281400</v>
       </c>
-      <c r="DZ14" s="1">
+      <c r="DZ14" s="3">
         <v>1285200</v>
       </c>
-      <c r="EA14" s="1">
+      <c r="EA14" s="3">
         <v>1280000</v>
       </c>
-      <c r="EB14" s="1">
+      <c r="EB14" s="3">
         <v>1254300</v>
       </c>
-      <c r="EC14" s="1">
+      <c r="EC14" s="3">
         <v>1250800</v>
       </c>
-      <c r="ED14" s="1">
+      <c r="ED14" s="3">
         <v>1219900</v>
       </c>
-      <c r="EE14" s="1">
+      <c r="EE14" s="3">
         <v>1218500</v>
       </c>
-      <c r="EF14" s="1">
+      <c r="EF14" s="3">
         <v>1207400</v>
       </c>
-      <c r="EG14" s="1" t="s">
-        <v>188</v>
+      <c r="EG14" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:137" x14ac:dyDescent="0.25">
@@ -11772,417 +11780,417 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:137" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:137" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>625</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>835900</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>802800</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="3">
         <v>833600</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="3">
         <v>853700</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3">
         <v>853600</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="3">
         <v>779700</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="3">
         <v>755100</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="3">
         <v>710900</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="3">
         <v>709000</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="3">
         <v>674100</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="3">
         <v>657300</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N26" s="3">
         <v>628800</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="3">
         <v>609300</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="3">
         <v>620400</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="3">
         <v>623700</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="3">
         <v>659400</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="3">
         <v>661000</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T26" s="3">
         <v>692700</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26" s="3">
         <v>683000</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26" s="3">
         <v>675400</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W26" s="3">
         <v>631000</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26" s="3">
         <v>649800</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Y26" s="3">
         <v>669400</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="Z26" s="3">
         <v>705500</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AA26" s="3">
         <v>673800</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AB26" s="3">
         <v>663000</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AC26" s="3">
         <v>659600</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AD26" s="3">
         <v>677500</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AE26" s="3">
         <v>696500</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AF26" s="3">
         <v>699800</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AG26" s="3">
         <v>720800</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AH26" s="3">
         <v>688500</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AI26" s="3">
         <v>679200</v>
       </c>
-      <c r="AJ26" s="1">
+      <c r="AJ26" s="3">
         <v>653800</v>
       </c>
-      <c r="AK26" s="1">
+      <c r="AK26" s="3">
         <v>646900</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AL26" s="3">
         <v>612000</v>
       </c>
-      <c r="AM26" s="1">
+      <c r="AM26" s="3">
         <v>621600</v>
       </c>
-      <c r="AN26" s="1">
+      <c r="AN26" s="3">
         <v>648100</v>
       </c>
-      <c r="AO26" s="1">
+      <c r="AO26" s="3">
         <v>676200</v>
       </c>
-      <c r="AP26" s="1">
+      <c r="AP26" s="3">
         <v>675500</v>
       </c>
-      <c r="AQ26" s="1">
+      <c r="AQ26" s="3">
         <v>662800</v>
       </c>
-      <c r="AR26" s="1">
+      <c r="AR26" s="3">
         <v>662000</v>
       </c>
-      <c r="AS26" s="1">
+      <c r="AS26" s="3">
         <v>651200</v>
       </c>
-      <c r="AT26" s="1">
+      <c r="AT26" s="3">
         <v>645900</v>
       </c>
-      <c r="AU26" s="1">
+      <c r="AU26" s="3">
         <v>644500</v>
       </c>
-      <c r="AV26" s="1">
+      <c r="AV26" s="3">
         <v>618300</v>
       </c>
-      <c r="AW26" s="1">
+      <c r="AW26" s="3">
         <v>619200</v>
       </c>
-      <c r="AX26" s="1">
+      <c r="AX26" s="3">
         <v>613100</v>
       </c>
-      <c r="AY26" s="1">
+      <c r="AY26" s="3">
         <v>603400</v>
       </c>
-      <c r="AZ26" s="1">
+      <c r="AZ26" s="3">
         <v>605600</v>
       </c>
-      <c r="BA26" s="1">
+      <c r="BA26" s="3">
         <v>617200</v>
       </c>
-      <c r="BB26" s="1">
+      <c r="BB26" s="3">
         <v>662800</v>
       </c>
-      <c r="BC26" s="1">
+      <c r="BC26" s="3">
         <v>678100</v>
       </c>
-      <c r="BD26" s="1">
+      <c r="BD26" s="3">
         <v>675500</v>
       </c>
-      <c r="BE26" s="1">
+      <c r="BE26" s="3">
         <v>687000</v>
       </c>
-      <c r="BF26" s="1">
+      <c r="BF26" s="3">
         <v>698100</v>
       </c>
-      <c r="BG26" s="1">
+      <c r="BG26" s="3">
         <v>713500</v>
       </c>
-      <c r="BH26" s="1">
+      <c r="BH26" s="3">
         <v>722200</v>
       </c>
-      <c r="BI26" s="1">
+      <c r="BI26" s="3">
         <v>756700</v>
       </c>
-      <c r="BJ26" s="1">
+      <c r="BJ26" s="3">
         <v>755800</v>
       </c>
-      <c r="BK26" s="1">
+      <c r="BK26" s="3">
         <v>746900</v>
       </c>
-      <c r="BL26" s="1">
+      <c r="BL26" s="3">
         <v>745100</v>
       </c>
-      <c r="BM26" s="1">
+      <c r="BM26" s="3">
         <v>776800</v>
       </c>
-      <c r="BN26" s="1">
+      <c r="BN26" s="3">
         <v>801400</v>
       </c>
-      <c r="BO26" s="1">
+      <c r="BO26" s="3">
         <v>814400</v>
       </c>
-      <c r="BP26" s="1">
+      <c r="BP26" s="3">
         <v>807100</v>
       </c>
-      <c r="BQ26" s="1">
+      <c r="BQ26" s="3">
         <v>804100</v>
       </c>
-      <c r="BR26" s="1">
+      <c r="BR26" s="3">
         <v>783800</v>
       </c>
-      <c r="BS26" s="1">
+      <c r="BS26" s="3">
         <v>784200</v>
       </c>
-      <c r="BT26" s="1">
+      <c r="BT26" s="3">
         <v>789100</v>
       </c>
-      <c r="BU26" s="1">
+      <c r="BU26" s="3">
         <v>798600</v>
       </c>
-      <c r="BV26" s="1">
+      <c r="BV26" s="3">
         <v>812600</v>
       </c>
-      <c r="BW26" s="1">
+      <c r="BW26" s="3">
         <v>833900</v>
       </c>
-      <c r="BX26" s="1">
+      <c r="BX26" s="3">
         <v>831800</v>
       </c>
-      <c r="BY26" s="1">
+      <c r="BY26" s="3">
         <v>822700</v>
       </c>
-      <c r="BZ26" s="1">
+      <c r="BZ26" s="3">
         <v>807600</v>
       </c>
-      <c r="CA26" s="1">
+      <c r="CA26" s="3">
         <v>813300</v>
       </c>
-      <c r="CB26" s="1">
+      <c r="CB26" s="3">
         <v>843400</v>
       </c>
-      <c r="CC26" s="1">
+      <c r="CC26" s="3">
         <v>890300</v>
       </c>
-      <c r="CD26" s="1">
+      <c r="CD26" s="3">
         <v>897600</v>
       </c>
-      <c r="CE26" s="1">
+      <c r="CE26" s="3">
         <v>903800</v>
       </c>
-      <c r="CF26" s="1">
+      <c r="CF26" s="3">
         <v>891000</v>
       </c>
-      <c r="CG26" s="1">
+      <c r="CG26" s="3">
         <v>907100</v>
       </c>
-      <c r="CH26" s="1">
+      <c r="CH26" s="3">
         <v>902600</v>
       </c>
-      <c r="CI26" s="1">
+      <c r="CI26" s="3">
         <v>887800</v>
       </c>
-      <c r="CJ26" s="1">
+      <c r="CJ26" s="3">
         <v>875100</v>
       </c>
-      <c r="CK26" s="1">
+      <c r="CK26" s="3">
         <v>882600</v>
       </c>
-      <c r="CL26" s="1">
+      <c r="CL26" s="3">
         <v>892200</v>
       </c>
-      <c r="CM26" s="1">
+      <c r="CM26" s="3">
         <v>900200</v>
       </c>
-      <c r="CN26" s="1">
+      <c r="CN26" s="3">
         <v>897800</v>
       </c>
-      <c r="CO26" s="1">
+      <c r="CO26" s="3">
         <v>905800</v>
       </c>
-      <c r="CP26" s="1">
+      <c r="CP26" s="3">
         <v>925300</v>
       </c>
-      <c r="CQ26" s="1">
+      <c r="CQ26" s="3">
         <v>938600</v>
       </c>
-      <c r="CR26" s="1">
+      <c r="CR26" s="3">
         <v>937500</v>
       </c>
-      <c r="CS26" s="1">
+      <c r="CS26" s="3">
         <v>924800</v>
       </c>
-      <c r="CT26" s="1">
+      <c r="CT26" s="3">
         <v>920400</v>
       </c>
-      <c r="CU26" s="1">
+      <c r="CU26" s="3">
         <v>904100</v>
       </c>
-      <c r="CV26" s="1">
+      <c r="CV26" s="3">
         <v>909900</v>
       </c>
-      <c r="CW26" s="1">
+      <c r="CW26" s="3">
         <v>913900</v>
       </c>
-      <c r="CX26" s="1">
+      <c r="CX26" s="3">
         <v>950000</v>
       </c>
-      <c r="CY26" s="1">
+      <c r="CY26" s="3">
         <v>952300</v>
       </c>
-      <c r="CZ26" s="1">
+      <c r="CZ26" s="3">
         <v>958000</v>
       </c>
-      <c r="DA26" s="1">
+      <c r="DA26" s="3">
         <v>928000</v>
       </c>
-      <c r="DB26" s="1">
+      <c r="DB26" s="3">
         <v>944300</v>
       </c>
-      <c r="DC26" s="1">
+      <c r="DC26" s="3">
         <v>917200</v>
       </c>
-      <c r="DD26" s="1">
+      <c r="DD26" s="3">
         <v>936900</v>
       </c>
-      <c r="DE26" s="1">
+      <c r="DE26" s="3">
         <v>1005600</v>
       </c>
-      <c r="DF26" s="1">
+      <c r="DF26" s="3">
         <v>1026400</v>
       </c>
-      <c r="DG26" s="1">
+      <c r="DG26" s="3">
         <v>1033400</v>
       </c>
-      <c r="DH26" s="1">
+      <c r="DH26" s="3">
         <v>985000</v>
       </c>
-      <c r="DI26" s="1">
+      <c r="DI26" s="3">
         <v>1057700</v>
       </c>
-      <c r="DJ26" s="1">
+      <c r="DJ26" s="3">
         <v>1072500</v>
       </c>
-      <c r="DK26" s="1">
+      <c r="DK26" s="3">
         <v>1066700</v>
       </c>
-      <c r="DL26" s="1">
+      <c r="DL26" s="3">
         <v>1006300</v>
       </c>
-      <c r="DM26" s="1">
+      <c r="DM26" s="3">
         <v>1027600</v>
       </c>
-      <c r="DN26" s="1">
+      <c r="DN26" s="3">
         <v>1021400</v>
       </c>
-      <c r="DO26" s="1">
+      <c r="DO26" s="3">
         <v>1039800</v>
       </c>
-      <c r="DP26" s="1">
+      <c r="DP26" s="3">
         <v>1031200</v>
       </c>
-      <c r="DQ26" s="1">
+      <c r="DQ26" s="3">
         <v>1054100</v>
       </c>
-      <c r="DR26" s="1">
+      <c r="DR26" s="3">
         <v>1070600</v>
       </c>
-      <c r="DS26" s="1">
+      <c r="DS26" s="3">
         <v>1098300</v>
       </c>
-      <c r="DT26" s="1">
+      <c r="DT26" s="3">
         <v>1112400</v>
       </c>
-      <c r="DU26" s="1">
+      <c r="DU26" s="3">
         <v>1139100</v>
       </c>
-      <c r="DV26" s="1">
+      <c r="DV26" s="3">
         <v>1129200</v>
       </c>
-      <c r="DW26" s="1">
+      <c r="DW26" s="3">
         <v>1130000</v>
       </c>
-      <c r="DX26" s="1">
+      <c r="DX26" s="3">
         <v>1099200</v>
       </c>
-      <c r="DY26" s="1">
+      <c r="DY26" s="3">
         <v>1123900</v>
       </c>
-      <c r="DZ26" s="1">
+      <c r="DZ26" s="3">
         <v>1138200</v>
       </c>
-      <c r="EA26" s="1">
+      <c r="EA26" s="3">
         <v>1137400</v>
       </c>
-      <c r="EB26" s="1">
+      <c r="EB26" s="3">
         <v>1116500</v>
       </c>
-      <c r="EC26" s="1">
+      <c r="EC26" s="3">
         <v>1097600</v>
       </c>
-      <c r="ED26" s="1">
+      <c r="ED26" s="3">
         <v>1125800</v>
       </c>
-      <c r="EE26" s="1">
+      <c r="EE26" s="3">
         <v>1117800</v>
       </c>
-      <c r="EF26" s="1">
+      <c r="EF26" s="3">
         <v>1110000</v>
       </c>
-      <c r="EG26" s="1" t="s">
-        <v>188</v>
+      <c r="EG26" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:137" x14ac:dyDescent="0.25">
